--- a/statistics/HistoricalDistanceData/historical_distance/Q911233-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q911233-en.xlsx
@@ -31,61 +31,61 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Austrian Parliament Recognizes Armenian Genocide</t>
+  </si>
+  <si>
+    <t>Australia Institute of H&amp;G Studies</t>
+  </si>
+  <si>
+    <t>Persecution of the Greeks in Turkey, 1914-1918</t>
+  </si>
+  <si>
     <t>The war of the world : twentieth-century conflict and the descent of the West</t>
   </si>
   <si>
-    <t>Persecution of the Greeks in Turkey, 1914-1918</t>
-  </si>
-  <si>
-    <t>Australia Institute of H&amp;G Studies</t>
+    <t>May 19, Pontian Greek Genocide Remembrance Day</t>
   </si>
   <si>
     <t>Modern Greek in Asia Minor; a study of the dialects of Siĺli, Cappadocia and Phárasa, with grammar, texts, translations and glossary</t>
   </si>
   <si>
-    <t>May 19, Pontian Greek Genocide Remembrance Day</t>
-  </si>
-  <si>
-    <t>Austrian Parliament Recognizes Armenian Genocide</t>
+    <t>2015-04-22T14:54:34UTC</t>
+  </si>
+  <si>
+    <t>2017-01-11T04:05:28UTC</t>
+  </si>
+  <si>
+    <t>1919-01-07T00:00:00UTC</t>
   </si>
   <si>
     <t>2006-01-07T00:00:00UTC</t>
   </si>
   <si>
-    <t>1919-01-07T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2017-01-11T04:05:28UTC</t>
+    <t>2013-05-18T05:27:44UTC</t>
   </si>
   <si>
     <t>1916-01-07T00:00:00UTC</t>
   </si>
   <si>
-    <t>2013-05-18T05:27:44UTC</t>
-  </si>
-  <si>
-    <t>2015-04-22T14:54:34UTC</t>
-  </si>
-  <si>
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>https://massispost.com/2015/04/austrian-parliament-recognizes-armenian-genocide/</t>
+  </si>
+  <si>
+    <t>http://www.aihgs.com/</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/persecutionofgre00consrich</t>
+  </si>
+  <si>
     <t>https://archive.org/details/warofworldtwenti00nial</t>
   </si>
   <si>
-    <t>https://archive.org/details/persecutionofgre00consrich</t>
-  </si>
-  <si>
-    <t>http://www.aihgs.com/</t>
+    <t>http://greece.greekreporter.com/2013/05/18/may-19-pontian-greek-genocide-remembrance-day/</t>
   </si>
   <si>
     <t>https://archive.org/details/moderngreekinas00hallgoog</t>
-  </si>
-  <si>
-    <t>http://greece.greekreporter.com/2013/05/18/may-19-pontian-greek-genocide-remembrance-day/</t>
-  </si>
-  <si>
-    <t>https://massispost.com/2015/04/austrian-parliament-recognizes-armenian-genocide/</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>33974</v>
+        <v>37366</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -504,7 +504,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>2197</v>
+        <v>37996</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -521,7 +521,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>37996</v>
+        <v>2197</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -538,7 +538,7 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>1101</v>
+        <v>33974</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -572,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>37366</v>
+        <v>1101</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
